--- a/Tests/uft params/test5_date params/Default.xlsx
+++ b/Tests/uft params/test5_date params/Default.xlsx
@@ -469,14 +469,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests/uft params/test5_date params/Default.xlsx
+++ b/Tests/uft params/test5_date params/Default.xlsx
@@ -12,6 +12,14 @@
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,15 +478,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -492,12 +505,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
